--- a/Input_Output.xlsx
+++ b/Input_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Dev\SecantOptimiserAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC10350-CF32-4C3F-A3DC-A7A8D5154D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2420C0-06F3-4DFB-B2C9-C07F910DBEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{609F5435-9BBC-4EE3-A775-882EDFFED95D}"/>
   </bookViews>
@@ -510,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450B0B33-89B9-4924-A6FC-D01670CD8C9D}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +841,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6100</v>
       </c>
@@ -861,7 +861,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>12000</v>
       </c>
@@ -871,6 +871,54 @@
       <c r="C19">
         <f>A19-B19</f>
         <v>8955</v>
+      </c>
+      <c r="D19">
+        <f>2980*3</f>
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6100</v>
+      </c>
+      <c r="C22">
+        <f>12000+6100</f>
+        <v>18100</v>
+      </c>
+      <c r="E22">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2980</v>
+      </c>
+      <c r="C23">
+        <f>2980*4</f>
+        <v>11920</v>
+      </c>
+      <c r="E23">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>A22-A23</f>
+        <v>3120</v>
+      </c>
+      <c r="C24">
+        <f>C22-C23</f>
+        <v>6180</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E22+E23)</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f>3120-5</f>
+        <v>3115</v>
       </c>
     </row>
   </sheetData>
